--- a/Project Documentation/Test Plan and Log.xlsx
+++ b/Project Documentation/Test Plan and Log.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>TEST PLAN (This section needs to be completed before your Tests)</t>
   </si>
@@ -186,6 +186,82 @@
   </si>
   <si>
     <t>Main form - click logout button</t>
+  </si>
+  <si>
+    <t>Customer is signed in</t>
+  </si>
+  <si>
+    <t>Customer adds new delivery address</t>
+  </si>
+  <si>
+    <t>Page Account -&gt; Your addresses -&gt; Add Address link -&gt; Enter  Name -John Doe
+Street address - Flat 8b
+                                  London road 22
+City/Town - London
+Post Code - L23 W2A</t>
+  </si>
+  <si>
+    <t>Delivery address is added and displayed on your addresses page</t>
+  </si>
+  <si>
+    <t>Customer edits Login &amp; Security details - Email</t>
+  </si>
+  <si>
+    <t>Email is updated</t>
+  </si>
+  <si>
+    <t>Page Account -&gt; Login &amp; Security -&gt; Press Edit on email row -&gt; enter new email -&gt; press Update</t>
+  </si>
+  <si>
+    <t>Customer edits Login &amp; Security details - Name</t>
+  </si>
+  <si>
+    <t>Name is updated</t>
+  </si>
+  <si>
+    <t>Page Account -&gt; Login &amp; Security -&gt; Press Edit on email row -&gt; enter new name -&gt; press Update</t>
+  </si>
+  <si>
+    <t>Customer is singed in</t>
+  </si>
+  <si>
+    <t>Customer edits Login &amp; Security details - Phone number</t>
+  </si>
+  <si>
+    <t>Phone number is updated</t>
+  </si>
+  <si>
+    <t>Page Account -&gt; Login &amp; Security -&gt; Press Edit on email row -&gt; enter new phone number -&gt; press Update</t>
+  </si>
+  <si>
+    <t>Testing adding new employee</t>
+  </si>
+  <si>
+    <t>Employee is added to the list, Newly added employee is able to use/sign into Warehouse application</t>
+  </si>
+  <si>
+    <t>Page Add new Employee -&gt; values entered ( * Id is autogenerated) First name : Jack, Last Name: Sparrow, Password: P@ssword1, Confirm Password: P@ssword1, Tasks selected: all, -&gt; Press Add Employee</t>
+  </si>
+  <si>
+    <t>Testing changing employee password</t>
+  </si>
+  <si>
+    <t>Employee password is chaged, Employee is able to sign into warehouse application with a new password, old password is invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator is Signed In - employee is present, Name: Jack Black, Current Password: P@ssword1 </t>
+  </si>
+  <si>
+    <t>View all employees page -&gt; Select employee Jack Black -&gt; Press Edit -&gt; Press Reset Password -&gt; Enter Password: newP@ssword1 , Confirm Password: newP@ssword1 -&gt; Press Update Password</t>
+  </si>
+  <si>
+    <t>Add new Item to the catalog</t>
+  </si>
+  <si>
+    <t>Item is added to the catalog with corresponding details -&gt; Item Title: Bose B5 Speakers, Item Description: Awesome Speakers blablabla, Price: 499.00,  Category: Speakers, ImageURI: bose-b5-speakers.png</t>
+  </si>
+  <si>
+    <t>Add new item page -&gt; Enter following Details  Item Title: Bose B5 Speakers, Item Description: Awesome Speakers blablabla, Price: 499.00,  Category: Speakers, ImageURI: bose-b5-speakers.png -&gt; press Add Item</t>
   </si>
 </sst>
 </file>
@@ -272,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +369,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,18 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +711,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,22 +729,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -677,19 +762,19 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -707,13 +792,13 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -722,22 +807,22 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -746,22 +831,22 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -779,13 +864,13 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -803,13 +888,13 @@
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -827,80 +912,236 @@
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="F13:H13"/>
@@ -909,22 +1150,6 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -936,387 +1161,389 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q13"/>
+  <dimension ref="A2:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
+      <selection activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="87.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="5" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="46">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:P12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -1348,18 +1575,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1414,13 +1641,13 @@
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="3"/>
@@ -1434,13 +1661,13 @@
       <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="3"/>

--- a/Project Documentation/Test Plan and Log.xlsx
+++ b/Project Documentation/Test Plan and Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\project-management-y2\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni_projects\project-management-y2\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5AC05-E6CD-4F18-B682-02D05E790FCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24975" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Test Plan" sheetId="7" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>TEST PLAN (This section needs to be completed before your Tests)</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Account is created - Customer is able to Sign In</t>
   </si>
   <si>
-    <t>Data to be entered on the Signup page - First Name - Joe, Last Name - Doe, Email address - john_doe@mail.com, Password - Pass@word1, Confirm Password - Pass@word1, Click signup - notification is displayed with a link to activation email, open email, click on the activation link, notification is displayed confirming activation of the email, go to sign in page and sign in with credentials used to sign up</t>
-  </si>
-  <si>
     <t>Administrator account is present with these credentials: Email - admin@mail.com Password- Pass@word1</t>
   </si>
   <si>
@@ -135,18 +133,6 @@
   </si>
   <si>
     <t>Administrator is signed out and redirected to login page</t>
-  </si>
-  <si>
-    <t>Administrator sign in page - credentials entered: Email - admin@mail.com Password- Pass@word1</t>
-  </si>
-  <si>
-    <t>Administrator sign in page - credentials entered: Email - admin@mail.com Password- Pass@word123</t>
-  </si>
-  <si>
-    <t>Administrator sign in page - credentials entered: Email - administrator@mail.com Password- Pass@word1</t>
-  </si>
-  <si>
-    <t>Administrator sign in page - credentials entered: Email - administrator@mail.com Password- Pass@word12345</t>
   </si>
   <si>
     <t>Employee account is present with these credentials: Username - 9002990 Password- Pass@word1</t>
@@ -263,11 +249,92 @@
   <si>
     <t>Add new item page -&gt; Enter following Details  Item Title: Bose B5 Speakers, Item Description: Awesome Speakers blablabla, Price: 499.00,  Category: Speakers, ImageURI: bose-b5-speakers.png -&gt; press Add Item</t>
   </si>
+  <si>
+    <t>Administrator sign in page - credentials entered: Email - admin@gmail.com Password- Pass@word1</t>
+  </si>
+  <si>
+    <t>Administrator sign in page - credentials entered: Email - admin@gmail.com Password- Pass@word123</t>
+  </si>
+  <si>
+    <t>Administrator sign in page - credentials entered: Email - administrator@gmail.com Password- Pass@word1</t>
+  </si>
+  <si>
+    <t>Administrator sign in page - credentials entered: Email - administrator@gmail.com Password- Pass@word12345</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2.</t>
+  </si>
+  <si>
+    <t>Customer logged in successfully</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Customer is shown error message</t>
+  </si>
+  <si>
+    <t>Test 3.</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5 - Before and After</t>
+  </si>
+  <si>
+    <t>Customer is logged out</t>
+  </si>
+  <si>
+    <t>Data to be entered on the Signup page - First Name - Joe, Last Name - Doe, Email address - john.doe@mail.com, Password - Pass@word1, Confirm Password - Pass@word1, Click signup -  go to sign in page and sign in with credentials used to sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 6 </t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>Admin logged in</t>
+  </si>
+  <si>
+    <t>Admin logged out</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>Message displayed</t>
+  </si>
+  <si>
+    <t>Administrator account is present with these credentials: Email - admin@mail.com Password- Pass@word1 === Customer account is present with credentials test@gmail.com - Pass@word1</t>
+  </si>
+  <si>
+    <t>Testing if customer is able to login</t>
+  </si>
+  <si>
+    <t>Administrator sign in page - credentials entered: Email - test@gmail.com -  Password- Pass@word1</t>
+  </si>
+  <si>
+    <t>Login page is displayed on attempted login</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -348,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,6 +443,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -419,6 +492,500 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5760767</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>150463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1233657D-B681-4AE7-8FB2-D8690977419F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44824" y="13000225"/>
+          <a:ext cx="6321061" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>606464</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827CBC0A-C2E6-4843-B83E-3E54E0183043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18030264"/>
+          <a:ext cx="7161905" cy="4466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5095238</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>170929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08786D15-ECAA-4667-878D-EB263521DDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="23241000"/>
+          <a:ext cx="5095238" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5323809</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>104214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE134F2-8675-418C-B2A2-956FAF476F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="28384500"/>
+          <a:ext cx="5323809" cy="4485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3761905</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>75929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9892F7A7-E795-49A1-ACCE-86B831966500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="33528000"/>
+          <a:ext cx="3761905" cy="2171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3380952</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B2E295-1271-4242-BC8A-46633BCC306A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6555441" y="33718500"/>
+          <a:ext cx="3380952" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4838095</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>56762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D545C3B-1DE3-4636-B7E2-815DDABD64FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="37338000"/>
+          <a:ext cx="4838095" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3704762</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>69743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286B9D1E-3FAB-4E44-A20E-23D85F9813A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605234" y="11668125"/>
+          <a:ext cx="3704762" cy="4028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3876190</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54BE6C8-4215-4B0D-86C8-92564C6CDF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605234" y="16192500"/>
+          <a:ext cx="3876190" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5647619</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>147895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2387AD7-36E7-4B50-BB1E-D2C75E5AA07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605234" y="21282422"/>
+          <a:ext cx="5647619" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4161905</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>115401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6176C425-9B37-4678-AFED-9903BFDE8016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605234" y="27136328"/>
+          <a:ext cx="4161905" cy="3885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,6 +1064,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -532,6 +1116,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,14 +1308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L19"/>
+  <dimension ref="A2:L151"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -729,22 +1330,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -762,19 +1363,19 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -792,13 +1393,17 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="F4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -816,13 +1421,17 @@
       <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -840,13 +1449,17 @@
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -864,13 +1477,17 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="F7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -888,13 +1505,17 @@
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="F8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -910,111 +1531,115 @@
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1024,13 +1649,13 @@
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1040,13 +1665,13 @@
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1056,13 +1681,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1072,13 +1697,13 @@
       <c r="C17" s="6"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1088,13 +1713,13 @@
       <c r="C18" s="6"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1104,28 +1729,62 @@
       <c r="C19" s="6"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="F5:H5"/>
@@ -1134,37 +1793,34 @@
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P13"/>
+  <dimension ref="A2:P114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1177,26 +1833,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1205,305 +1861,406 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+  <mergeCells count="49">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J5:L5"/>
@@ -1512,46 +2269,21 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1575,18 +2307,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1619,16 +2351,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
@@ -1639,16 +2371,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
@@ -1659,16 +2391,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
@@ -1679,16 +2411,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
@@ -1699,16 +2431,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
